--- a/Result/Figure5/100N_plot.xlsx
+++ b/Result/Figure5/100N_plot.xlsx
@@ -1073,7 +1073,7 @@
   <sheetPr/>
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
